--- a/Team-Data/2007-08/3-15-2007-08.xlsx
+++ b/Team-Data/2007-08/3-15-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
@@ -768,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM2" t="n">
         <v>28</v>
@@ -780,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -813,10 +880,10 @@
         <v>14</v>
       </c>
       <c r="BA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,40 +933,40 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L3" t="n">
         <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
@@ -923,10 +990,10 @@
         <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -953,16 +1020,16 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>12</v>
@@ -980,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -995,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1132,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
@@ -1141,13 +1208,13 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
       </c>
       <c r="AQ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
@@ -1156,19 +1223,19 @@
         <v>24</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1359,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1532,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1681,13 +1748,13 @@
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1702,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1723,13 +1790,13 @@
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2054,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
         <v>14</v>
@@ -2063,13 +2130,13 @@
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2087,7 +2154,7 @@
         <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.631</v>
+        <v>0.625</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,19 +2207,19 @@
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
         <v>18.7</v>
@@ -2161,22 +2228,22 @@
         <v>24.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R10" t="n">
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2188,7 +2255,7 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
         <v>21.6</v>
@@ -2200,13 +2267,13 @@
         <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2215,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2263,13 +2330,13 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>5.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2394,10 +2461,10 @@
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2424,7 +2491,7 @@
         <v>28</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>0.379</v>
+        <v>0.385</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
         <v>85.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>8.9</v>
@@ -2522,31 +2589,31 @@
         <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.1</v>
@@ -2558,13 +2625,13 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2603,16 +2670,16 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.437</v>
@@ -2695,10 +2762,10 @@
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O13" t="n">
         <v>21</v>
@@ -2707,7 +2774,7 @@
         <v>26.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
@@ -2716,10 +2783,10 @@
         <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
@@ -2734,19 +2801,19 @@
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
@@ -2779,16 +2846,16 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2800,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2809,10 +2876,10 @@
         <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2997,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J15" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.451</v>
@@ -3059,43 +3126,43 @@
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O15" t="n">
         <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T15" t="n">
         <v>41.3</v>
       </c>
       <c r="U15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>19.5</v>
@@ -3104,13 +3171,13 @@
         <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3122,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3131,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>8</v>
@@ -3143,22 +3210,22 @@
         <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>27</v>
@@ -3167,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
         <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
@@ -3435,19 +3502,19 @@
         <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
@@ -3459,7 +3526,7 @@
         <v>4.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z17" t="n">
         <v>21.5</v>
@@ -3468,13 +3535,13 @@
         <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>24</v>
@@ -3516,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,31 +3592,31 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY17" t="n">
         <v>21</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AZ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB17" t="n">
         <v>20</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>23</v>
-      </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.231</v>
+        <v>0.234</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
@@ -3608,19 +3675,19 @@
         <v>15.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
@@ -3629,25 +3696,25 @@
         <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AB18" t="n">
         <v>94.09999999999999</v>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,22 +3753,22 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>17</v>
@@ -3713,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.424</v>
+        <v>0.415</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J19" t="n">
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.34</v>
       </c>
       <c r="O19" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.726</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3817,28 +3884,28 @@
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.2</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,13 +3929,13 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3886,13 +3953,13 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3910,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4247,7 +4314,7 @@
         <v>10</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4259,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.647</v>
+        <v>0.642</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M22" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.382</v>
+        <v>0.379</v>
       </c>
       <c r="O22" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P22" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S22" t="n">
         <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X22" t="n">
         <v>4.2</v>
@@ -4378,28 +4445,28 @@
         <v>23.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105</v>
+        <v>104.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>27</v>
@@ -4417,16 +4484,16 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4438,13 +4505,13 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
         <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.493</v>
+        <v>0.485</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4512,37 +4579,37 @@
         <v>0.459</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
         <v>11.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P23" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
@@ -4560,10 +4627,10 @@
         <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
@@ -4581,7 +4648,7 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
@@ -4599,13 +4666,13 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4614,31 +4681,31 @@
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
         <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.785</v>
+        <v>0.79</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4718,7 +4785,7 @@
         <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
         <v>26.7</v>
@@ -4733,43 +4800,43 @@
         <v>6.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
@@ -4787,7 +4854,7 @@
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4814,16 +4881,16 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
         <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J25" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,10 +4949,10 @@
         <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
         <v>23.3</v>
@@ -4894,19 +4961,19 @@
         <v>0.766</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
@@ -4918,16 +4985,16 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
         <v>3</v>
@@ -4945,22 +5012,22 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4975,13 +5042,13 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
         <v>29</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>0.446</v>
+        <v>0.453</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,34 +5122,34 @@
         <v>79.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
         <v>19</v>
@@ -5094,13 +5161,13 @@
         <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y26" t="n">
         <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
@@ -5109,10 +5176,10 @@
         <v>101.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>44</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
         <v>78.5</v>
@@ -5246,7 +5313,7 @@
         <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O27" t="n">
         <v>16.7</v>
@@ -5255,7 +5322,7 @@
         <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
@@ -5270,7 +5337,7 @@
         <v>21.2</v>
       </c>
       <c r="V27" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5285,16 +5352,16 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
         <v>95.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>27</v>
@@ -5336,13 +5403,13 @@
         <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>-8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
         <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5515,7 +5582,7 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
@@ -5539,7 +5606,7 @@
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5694,13 +5761,13 @@
         <v>26</v>
       </c>
       <c r="AP29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
         <v>44</v>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5780,7 +5847,7 @@
         <v>39.9</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.496</v>
@@ -5789,34 +5856,34 @@
         <v>4.6</v>
       </c>
       <c r="M30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
         <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R30" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
@@ -5825,19 +5892,19 @@
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AA30" t="n">
         <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,10 +5913,10 @@
         <v>5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5861,7 +5928,7 @@
         <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,25 +5937,25 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>15</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
         <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.442</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O31" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.79</v>
@@ -5992,13 +6059,13 @@
         <v>29.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V31" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W31" t="n">
         <v>7.9</v>
@@ -6010,19 +6077,19 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6049,10 +6116,10 @@
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
@@ -6067,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU31" t="n">
         <v>28</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-15-2007-08</t>
+          <t>2008-03-15</t>
         </is>
       </c>
     </row>
